--- a/xls/square_high_un_16_tri3_6.xlsx
+++ b/xls/square_high_un_16_tri3_6.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>type w</t>
+  </si>
+  <si>
+    <t>nʷ</t>
+  </si>
+  <si>
+    <t>type φ</t>
+  </si>
+  <si>
+    <t>nᵠ</t>
+  </si>
+  <si>
+    <t>type Q</t>
+  </si>
+  <si>
+    <t>nˢ</t>
+  </si>
+  <si>
+    <t>type M</t>
+  </si>
+  <si>
+    <t>nᵐ</t>
+  </si>
+  <si>
+    <t>L₂w</t>
+  </si>
+  <si>
+    <t>L₂φ</t>
+  </si>
+  <si>
+    <t>L₂Q</t>
+  </si>
+  <si>
+    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+  </si>
+  <si>
+    <t>tri3</t>
+  </si>
+  <si>
+    <t>PiecewisePolynomial{:Linear2D}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +418,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>340</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>216</v>
+      </c>
+      <c r="I6">
+        <v>31.21668239743907</v>
+      </c>
+      <c r="J6">
+        <v>31.941790712927382</v>
+      </c>
+      <c r="K6">
+        <v>13.61557140590475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>294</v>
+      </c>
+      <c r="I7">
+        <v>1.2229993299798378</v>
+      </c>
+      <c r="J7">
+        <v>2.3784271016888057</v>
+      </c>
+      <c r="K7">
+        <v>0.13334683628837665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>340</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>384</v>
+      </c>
+      <c r="I8">
+        <v>-1.217671564239241</v>
+      </c>
+      <c r="J8">
+        <v>-0.3407732638672835</v>
+      </c>
+      <c r="K8">
+        <v>-0.44287086409061155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>340</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>486</v>
+      </c>
+      <c r="I9">
+        <v>-1.235635853119919</v>
+      </c>
+      <c r="J9">
+        <v>-0.9737627887697585</v>
+      </c>
+      <c r="K9">
+        <v>-0.10095275588954736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
+        <v>-1.1828306557614456</v>
+      </c>
+      <c r="J10">
+        <v>-0.9891088329435042</v>
+      </c>
+      <c r="K10">
+        <v>-0.0551941547691375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>726</v>
+      </c>
+      <c r="I11">
+        <v>-0.8791421875451769</v>
+      </c>
+      <c r="J11">
+        <v>-0.794353687417975</v>
+      </c>
+      <c r="K11">
+        <v>0.09057757411718236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>864</v>
+      </c>
+      <c r="I12">
+        <v>-0.8186008857258984</v>
+      </c>
+      <c r="J12">
+        <v>-0.7538935647710673</v>
+      </c>
+      <c r="K12">
+        <v>0.14062642429244357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>340</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1014</v>
+      </c>
+      <c r="I13">
+        <v>-0.6811592072822146</v>
+      </c>
+      <c r="J13">
+        <v>-0.6380463036796251</v>
+      </c>
+      <c r="K13">
+        <v>0.2181878365870304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>340</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>1176</v>
+      </c>
+      <c r="I14">
+        <v>-0.6218216679538611</v>
+      </c>
+      <c r="J14">
+        <v>-0.5923556015903619</v>
+      </c>
+      <c r="K14">
+        <v>0.24845270822449103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>1350</v>
+      </c>
+      <c r="I15">
+        <v>-0.5627371946756619</v>
+      </c>
+      <c r="J15">
+        <v>-0.540818221707966</v>
+      </c>
+      <c r="K15">
+        <v>0.30552537129297225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>1536</v>
+      </c>
+      <c r="I16">
+        <v>-0.5017488130355513</v>
+      </c>
+      <c r="J16">
+        <v>-0.4889330405474721</v>
+      </c>
+      <c r="K16">
+        <v>0.5057363888950798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>1734</v>
+      </c>
+      <c r="I17">
+        <v>-0.431499600937181</v>
+      </c>
+      <c r="J17">
+        <v>-0.4259338413530644</v>
+      </c>
+      <c r="K17">
+        <v>1.1690396696100653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>1944</v>
+      </c>
+      <c r="I18">
+        <v>-0.03145837218652433</v>
+      </c>
+      <c r="J18">
+        <v>-0.040113496657451335</v>
+      </c>
+      <c r="K18">
+        <v>2.5169626366726634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>2166</v>
+      </c>
+      <c r="I19">
+        <v>-1.2593683339237791e-5</v>
+      </c>
+      <c r="J19">
+        <v>-1.4217333183367414e-5</v>
+      </c>
+      <c r="K19">
+        <v>2.057782024633888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>441</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>2400</v>
+      </c>
+      <c r="I20">
+        <v>-4.75899087332491e-6</v>
+      </c>
+      <c r="J20">
+        <v>-5.626351349704065e-6</v>
+      </c>
+      <c r="K20">
+        <v>1.8614907074038998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>340</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>484</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>2646</v>
+      </c>
+      <c r="I21">
+        <v>-2.759894719174027e-6</v>
+      </c>
+      <c r="J21">
+        <v>-3.2802009251829013e-6</v>
+      </c>
+      <c r="K21">
+        <v>1.7464623694743016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>529</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>2904</v>
+      </c>
+      <c r="I22">
+        <v>-3.5839243437105717e-6</v>
+      </c>
+      <c r="J22">
+        <v>-3.6079768785260445e-6</v>
+      </c>
+      <c r="K22">
+        <v>1.7331263478706547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>576</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>3174</v>
+      </c>
+      <c r="I23">
+        <v>-1.9484748781201794e-6</v>
+      </c>
+      <c r="J23">
+        <v>-2.2079897369365397e-6</v>
+      </c>
+      <c r="K23">
+        <v>1.6507625670246802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>625</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3456</v>
+      </c>
+      <c r="I24">
+        <v>-1.7146315042014151e-6</v>
+      </c>
+      <c r="J24">
+        <v>-1.9128979889569065e-6</v>
+      </c>
+      <c r="K24">
+        <v>1.6156727984159684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-1.6882532792877522e-6</v>
+      </c>
+      <c r="J25">
+        <v>-1.7807930627349089e-6</v>
+      </c>
+      <c r="K25">
+        <v>1.5883792977253897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-1.473083639265842e-6</v>
+      </c>
+      <c r="J26">
+        <v>-1.5579117778324106e-6</v>
+      </c>
+      <c r="K26">
+        <v>1.5592296604062066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-1.3857993702596094e-6</v>
+      </c>
+      <c r="J27">
+        <v>-1.450720608398318e-6</v>
+      </c>
+      <c r="K27">
+        <v>1.5416967634247172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-1.4055761656489517e-6</v>
+      </c>
+      <c r="J28">
+        <v>-1.4354037229414939e-6</v>
+      </c>
+      <c r="K28">
+        <v>1.5336377031310833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-1.2338387222585689e-6</v>
+      </c>
+      <c r="J29">
+        <v>-1.2859623775340052e-6</v>
+      </c>
+      <c r="K29">
+        <v>1.5147360108966699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>340</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-1.224125245802927e-6</v>
+      </c>
+      <c r="J30">
+        <v>-1.2710892688003327e-6</v>
+      </c>
+      <c r="K30">
+        <v>1.5109975411000025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-1.1845164691330913e-6</v>
+      </c>
+      <c r="J31">
+        <v>-1.2210809432711014e-6</v>
+      </c>
+      <c r="K31">
+        <v>1.5008116782625842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-1.1207603253470532e-6</v>
+      </c>
+      <c r="J32">
+        <v>-1.1618277432742925e-6</v>
+      </c>
+      <c r="K32">
+        <v>1.4913832585395814</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/square_high_un_16_tri3_6.xlsx
+++ b/xls/square_high_un_16_tri3_6.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="I6">
-        <v>31.21668239743907</v>
+        <v>0.16811891907150603</v>
       </c>
       <c r="J6">
-        <v>31.941790712927382</v>
+        <v>1.2672956333908998</v>
       </c>
       <c r="K6">
-        <v>13.61557140590475</v>
+        <v>0.06718282098464344</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="I7">
-        <v>1.2229993299798378</v>
+        <v>-1.4119109758812847</v>
       </c>
       <c r="J7">
-        <v>2.3784271016888057</v>
+        <v>-0.33426357703323945</v>
       </c>
       <c r="K7">
-        <v>0.13334683628837665</v>
+        <v>-0.5544180333831488</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="I8">
-        <v>-1.217671564239241</v>
+        <v>-1.524289601917693</v>
       </c>
       <c r="J8">
-        <v>-0.3407732638672835</v>
+        <v>-1.2259577563439934</v>
       </c>
       <c r="K8">
-        <v>-0.44287086409061155</v>
+        <v>-0.42646981774521303</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9">
-        <v>486</v>
+        <v>618</v>
       </c>
       <c r="I9">
-        <v>-1.235635853119919</v>
+        <v>-1.2077760690115158</v>
       </c>
       <c r="J9">
-        <v>-0.9737627887697585</v>
+        <v>-1.0382302388901319</v>
       </c>
       <c r="K9">
-        <v>-0.10095275588954736</v>
+        <v>-0.1340721754875168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>864</v>
       </c>
       <c r="I10">
-        <v>-1.1828306557614456</v>
+        <v>-0.6903916234397243</v>
       </c>
       <c r="J10">
-        <v>-0.9891088329435042</v>
+        <v>-0.6497920019717413</v>
       </c>
       <c r="K10">
-        <v>-0.0551941547691375</v>
+        <v>0.1693164268785408</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>726</v>
+        <v>906</v>
       </c>
       <c r="I11">
-        <v>-0.8791421875451769</v>
+        <v>-0.7273146873630483</v>
       </c>
       <c r="J11">
-        <v>-0.794353687417975</v>
+        <v>-0.6745826024651004</v>
       </c>
       <c r="K11">
-        <v>0.09057757411718236</v>
+        <v>0.19315490740132912</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>864</v>
+        <v>1104</v>
       </c>
       <c r="I12">
-        <v>-0.8186008857258984</v>
+        <v>-0.6294472201274086</v>
       </c>
       <c r="J12">
-        <v>-0.7538935647710673</v>
+        <v>-0.6010255439002956</v>
       </c>
       <c r="K12">
-        <v>0.14062642429244357</v>
+        <v>0.2117781910072601</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-0.6811592072822146</v>
+        <v>-0.5566702662698157</v>
       </c>
       <c r="J13">
-        <v>-0.6380463036796251</v>
+        <v>-0.5364373987158776</v>
       </c>
       <c r="K13">
-        <v>0.2181878365870304</v>
+        <v>0.275618139885092</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-0.6218216679538611</v>
+        <v>-0.5552959579067841</v>
       </c>
       <c r="J14">
-        <v>-0.5923556015903619</v>
+        <v>-0.5397325321443113</v>
       </c>
       <c r="K14">
-        <v>0.24845270822449103</v>
+        <v>0.28824015761313543</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-0.5627371946756619</v>
+        <v>-0.4513568627936903</v>
       </c>
       <c r="J15">
-        <v>-0.540818221707966</v>
+        <v>-0.4558038982035953</v>
       </c>
       <c r="K15">
-        <v>0.30552537129297225</v>
+        <v>0.40301574145406355</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-0.5017488130355513</v>
+        <v>-0.4915131051467972</v>
       </c>
       <c r="J16">
-        <v>-0.4889330405474721</v>
+        <v>-0.48957172494078827</v>
       </c>
       <c r="K16">
-        <v>0.5057363888950798</v>
+        <v>0.2865339356066281</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-0.431499600937181</v>
+        <v>6.599393734749375e-5</v>
       </c>
       <c r="J17">
-        <v>-0.4259338413530644</v>
+        <v>1.7912920958053963e-5</v>
       </c>
       <c r="K17">
-        <v>1.1690396696100653</v>
+        <v>2.20613626028254</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.03145837218652433</v>
+        <v>-5.145471858802166e-6</v>
       </c>
       <c r="J18">
-        <v>-0.040113496657451335</v>
+        <v>-5.664423716754696e-6</v>
       </c>
       <c r="K18">
-        <v>2.5169626366726634</v>
+        <v>1.8533433407384867</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-1.2593683339237791e-5</v>
+        <v>-3.3480305952623423e-6</v>
       </c>
       <c r="J19">
-        <v>-1.4217333183367414e-5</v>
+        <v>-3.431309725287849e-6</v>
       </c>
       <c r="K19">
-        <v>2.057782024633888</v>
+        <v>1.7243713148152673</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-4.75899087332491e-6</v>
+        <v>-1.6313473676686469e-6</v>
       </c>
       <c r="J20">
-        <v>-5.626351349704065e-6</v>
+        <v>-1.9651069247872144e-6</v>
       </c>
       <c r="K20">
-        <v>1.8614907074038998</v>
+        <v>1.6341789532867754</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-2.759894719174027e-6</v>
+        <v>-1.4766635133803376e-6</v>
       </c>
       <c r="J21">
-        <v>-3.2802009251829013e-6</v>
+        <v>-1.6120523944892124e-6</v>
       </c>
       <c r="K21">
-        <v>1.7464623694743016</v>
+        <v>1.571613197388622</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-3.5839243437105717e-6</v>
+        <v>-1.2295374803377527e-6</v>
       </c>
       <c r="J22">
-        <v>-3.6079768785260445e-6</v>
+        <v>-1.3934212008502965e-6</v>
       </c>
       <c r="K22">
-        <v>1.7331263478706547</v>
+        <v>1.5493760827007985</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-1.9484748781201794e-6</v>
+        <v>-1.3327615891657903e-6</v>
       </c>
       <c r="J23">
-        <v>-2.2079897369365397e-6</v>
+        <v>-1.4035607687281313e-6</v>
       </c>
       <c r="K23">
-        <v>1.6507625670246802</v>
+        <v>1.5345984092509757</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-1.7146315042014151e-6</v>
+        <v>-1.3104523357659386e-6</v>
       </c>
       <c r="J24">
-        <v>-1.9128979889569065e-6</v>
+        <v>-1.3942485191809631e-6</v>
       </c>
       <c r="K24">
-        <v>1.6156727984159684</v>
+        <v>1.5352295136784633</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-1.6882532792877522e-6</v>
+        <v>-1.1875703579106002e-6</v>
       </c>
       <c r="J25">
-        <v>-1.7807930627349089e-6</v>
+        <v>-1.233138237715413e-6</v>
       </c>
       <c r="K25">
-        <v>1.5883792977253897</v>
+        <v>1.5048717697823117</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-1.473083639265842e-6</v>
+        <v>-1.1703879748527145e-6</v>
       </c>
       <c r="J26">
-        <v>-1.5579117778324106e-6</v>
+        <v>-1.2133767217448795e-6</v>
       </c>
       <c r="K26">
-        <v>1.5592296604062066</v>
+        <v>1.501236776170508</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1211,22 +1211,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-1.3857993702596094e-6</v>
+        <v>-1.1543575387925484e-6</v>
       </c>
       <c r="J27">
-        <v>-1.450720608398318e-6</v>
+        <v>-1.1861197929472312e-6</v>
       </c>
       <c r="K27">
-        <v>1.5416967634247172</v>
+        <v>1.494125003769557</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1246,22 +1246,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-1.4055761656489517e-6</v>
+        <v>-1.0814292207371855e-6</v>
       </c>
       <c r="J28">
-        <v>-1.4354037229414939e-6</v>
+        <v>-1.1216267223405186e-6</v>
       </c>
       <c r="K28">
-        <v>1.5336377031310833</v>
+        <v>1.4842462919890484</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1281,22 +1281,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-1.2338387222585689e-6</v>
+        <v>-1.1315007930289168e-6</v>
       </c>
       <c r="J29">
-        <v>-1.2859623775340052e-6</v>
+        <v>-1.164081346339609e-6</v>
       </c>
       <c r="K29">
-        <v>1.5147360108966699</v>
+        <v>1.4904223959372331</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1316,22 +1316,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-1.224125245802927e-6</v>
+        <v>-1.0467508780203582e-6</v>
       </c>
       <c r="J30">
-        <v>-1.2710892688003327e-6</v>
+        <v>-1.0785889059262742e-6</v>
       </c>
       <c r="K30">
-        <v>1.5109975411000025</v>
+        <v>1.4741480137332093</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1351,22 +1351,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-1.1845164691330913e-6</v>
+        <v>-1.067635277046095e-6</v>
       </c>
       <c r="J31">
-        <v>-1.2210809432711014e-6</v>
+        <v>-1.0925975824615703e-6</v>
       </c>
       <c r="K31">
-        <v>1.5008116782625842</v>
+        <v>1.4755770086573148</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1386,22 +1386,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-1.1207603253470532e-6</v>
+        <v>-1.0330596924813093e-6</v>
       </c>
       <c r="J32">
-        <v>-1.1618277432742925e-6</v>
+        <v>-1.0636140468126684e-6</v>
       </c>
       <c r="K32">
-        <v>1.4913832585395814</v>
+        <v>1.4708262704205852</v>
       </c>
     </row>
   </sheetData>
